--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H2">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I2">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J2">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="N2">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="O2">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="P2">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="Q2">
-        <v>2.339615994935333</v>
+        <v>5.714122437416</v>
       </c>
       <c r="R2">
-        <v>21.056543954418</v>
+        <v>51.427101936744</v>
       </c>
       <c r="S2">
-        <v>0.01750283167697151</v>
+        <v>0.04250504154196835</v>
       </c>
       <c r="T2">
-        <v>0.0175028316769715</v>
+        <v>0.04250504154196835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H3">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I3">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J3">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="N3">
         <v>19.493106</v>
       </c>
       <c r="O3">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="P3">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="Q3">
-        <v>4.144903598906</v>
+        <v>7.126499783844666</v>
       </c>
       <c r="R3">
-        <v>37.304132390154</v>
+        <v>64.138498054602</v>
       </c>
       <c r="S3">
-        <v>0.03100831511067283</v>
+        <v>0.05301114434959969</v>
       </c>
       <c r="T3">
-        <v>0.03100831511067282</v>
+        <v>0.05301114434959969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H4">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I4">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J4">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="N4">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="O4">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="P4">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="Q4">
-        <v>0.7584215885213333</v>
+        <v>1.880587993165555</v>
       </c>
       <c r="R4">
-        <v>6.825794296691999</v>
+        <v>16.92529193849</v>
       </c>
       <c r="S4">
-        <v>0.005673805202565795</v>
+        <v>0.01398893209732766</v>
       </c>
       <c r="T4">
-        <v>0.005673805202565795</v>
+        <v>0.01398893209732766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.637903</v>
+        <v>1.096772333333333</v>
       </c>
       <c r="H5">
-        <v>1.913709</v>
+        <v>3.290317</v>
       </c>
       <c r="I5">
-        <v>0.1229013127714845</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="J5">
-        <v>0.1229013127714844</v>
+        <v>0.2426185621302128</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="N5">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="O5">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="P5">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="Q5">
-        <v>9.185364960639001</v>
+        <v>17.89497175619977</v>
       </c>
       <c r="R5">
-        <v>82.668284645751</v>
+        <v>161.054745805798</v>
       </c>
       <c r="S5">
-        <v>0.06871636078127434</v>
+        <v>0.1331134441413171</v>
       </c>
       <c r="T5">
-        <v>0.06871636078127433</v>
+        <v>0.1331134441413171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.510843</v>
       </c>
       <c r="I6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J6">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="N6">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="O6">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="P6">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="Q6">
-        <v>0.6245340611873332</v>
+        <v>0.8871544742640001</v>
       </c>
       <c r="R6">
-        <v>5.620806550686</v>
+        <v>7.984390268376001</v>
       </c>
       <c r="S6">
-        <v>0.004672183201499892</v>
+        <v>0.006599182673409199</v>
       </c>
       <c r="T6">
-        <v>0.004672183201499891</v>
+        <v>0.006599182673409199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.510843</v>
       </c>
       <c r="I7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J7">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="N7">
         <v>19.493106</v>
       </c>
       <c r="O7">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="P7">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="Q7">
         <v>1.106435194262</v>
       </c>
       <c r="R7">
-        <v>9.957916748358</v>
+        <v>9.957916748358002</v>
       </c>
       <c r="S7">
-        <v>0.008277319444116865</v>
+        <v>0.008230323100474075</v>
       </c>
       <c r="T7">
-        <v>0.008277319444116863</v>
+        <v>0.008230323100474075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.510843</v>
       </c>
       <c r="I8">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J8">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="N8">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="O8">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="P8">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="Q8">
-        <v>0.2024520758093333</v>
+        <v>0.2919734518566667</v>
       </c>
       <c r="R8">
-        <v>1.822068682284</v>
+        <v>2.627761066710001</v>
       </c>
       <c r="S8">
-        <v>0.001514558206652275</v>
+        <v>0.002171872205442561</v>
       </c>
       <c r="T8">
-        <v>0.001514558206652275</v>
+        <v>0.002171872205442561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.510843</v>
       </c>
       <c r="I9">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="J9">
-        <v>0.03280711713229307</v>
+        <v>0.03766810132102297</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="N9">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="O9">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="P9">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="Q9">
-        <v>2.451929416953</v>
+        <v>2.778310131471333</v>
       </c>
       <c r="R9">
-        <v>22.067364752577</v>
+        <v>25.004791183242</v>
       </c>
       <c r="S9">
-        <v>0.01834305628002404</v>
+        <v>0.02066672334169713</v>
       </c>
       <c r="T9">
-        <v>0.01834305628002404</v>
+        <v>0.02066672334169713</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H10">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J10">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="N10">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="O10">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="P10">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="Q10">
-        <v>3.576192042372666</v>
+        <v>2.614702438744</v>
       </c>
       <c r="R10">
-        <v>32.185728381354</v>
+        <v>23.532321948696</v>
       </c>
       <c r="S10">
-        <v>0.026753743989472</v>
+        <v>0.01944971200668877</v>
       </c>
       <c r="T10">
-        <v>0.026753743989472</v>
+        <v>0.01944971200668877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H11">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I11">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J11">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="N11">
         <v>19.493106</v>
       </c>
       <c r="O11">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="P11">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="Q11">
-        <v>6.335642814418</v>
+        <v>3.260986541435334</v>
       </c>
       <c r="R11">
-        <v>57.02078532976199</v>
+        <v>29.348878872918</v>
       </c>
       <c r="S11">
-        <v>0.04739738913831341</v>
+        <v>0.0242571575827467</v>
       </c>
       <c r="T11">
-        <v>0.04739738913831341</v>
+        <v>0.02425715758274669</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H12">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I12">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J12">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="N12">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="O12">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="P12">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="Q12">
-        <v>1.159276246830667</v>
+        <v>0.8605307404344446</v>
       </c>
       <c r="R12">
-        <v>10.433486221476</v>
+        <v>7.744776663910001</v>
       </c>
       <c r="S12">
-        <v>0.00867262707184102</v>
+        <v>0.006401139504957369</v>
       </c>
       <c r="T12">
-        <v>0.00867262707184102</v>
+        <v>0.006401139504957368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.975059</v>
+        <v>0.5018676666666667</v>
       </c>
       <c r="H13">
-        <v>2.925177</v>
+        <v>1.505603</v>
       </c>
       <c r="I13">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="J13">
-        <v>0.1878593314808848</v>
+        <v>0.1110188577571507</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="N13">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="O13">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="P13">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="Q13">
-        <v>14.040179734467</v>
+        <v>8.188488574520221</v>
       </c>
       <c r="R13">
-        <v>126.361617610203</v>
+        <v>73.69639717068199</v>
       </c>
       <c r="S13">
-        <v>0.1050355712812584</v>
+        <v>0.06091084866275789</v>
       </c>
       <c r="T13">
-        <v>0.1050355712812584</v>
+        <v>0.06091084866275788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H14">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I14">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J14">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.667667333333333</v>
+        <v>5.209944</v>
       </c>
       <c r="N14">
-        <v>11.003002</v>
+        <v>15.629832</v>
       </c>
       <c r="O14">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="P14">
-        <v>0.1424137080579054</v>
+        <v>0.1751928672265232</v>
       </c>
       <c r="Q14">
-        <v>12.49619984052755</v>
+        <v>14.335897254752</v>
       </c>
       <c r="R14">
-        <v>112.465798564748</v>
+        <v>129.023075292768</v>
       </c>
       <c r="S14">
-        <v>0.09348494918996199</v>
+        <v>0.1066389310044569</v>
       </c>
       <c r="T14">
-        <v>0.09348494918996199</v>
+        <v>0.1066389310044569</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H15">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I15">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J15">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.497701999999999</v>
+        <v>6.497702</v>
       </c>
       <c r="N15">
         <v>19.493106</v>
       </c>
       <c r="O15">
-        <v>0.2523025540689536</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="P15">
-        <v>0.2523025540689535</v>
+        <v>0.2184958310038485</v>
       </c>
       <c r="Q15">
-        <v>22.13848076084933</v>
+        <v>17.87934539488267</v>
       </c>
       <c r="R15">
-        <v>199.246326847644</v>
+        <v>160.914108553944</v>
       </c>
       <c r="S15">
-        <v>0.1656195303758504</v>
+        <v>0.132997205971028</v>
       </c>
       <c r="T15">
-        <v>0.1656195303758504</v>
+        <v>0.132997205971028</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H16">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I16">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J16">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188929333333333</v>
+        <v>1.714656666666667</v>
       </c>
       <c r="N16">
-        <v>3.566788</v>
+        <v>5.14397</v>
       </c>
       <c r="O16">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="P16">
-        <v>0.04616553781744658</v>
+        <v>0.057658127945791</v>
       </c>
       <c r="Q16">
-        <v>4.050830458523555</v>
+        <v>4.718120156475556</v>
       </c>
       <c r="R16">
-        <v>36.457474126712</v>
+        <v>42.46308140828</v>
       </c>
       <c r="S16">
-        <v>0.03030454733638748</v>
+        <v>0.03509618413806342</v>
       </c>
       <c r="T16">
-        <v>0.03030454733638749</v>
+        <v>0.03509618413806342</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.407124666666667</v>
+        <v>2.751641333333334</v>
       </c>
       <c r="H17">
-        <v>10.221374</v>
+        <v>8.254924000000001</v>
       </c>
       <c r="I17">
-        <v>0.6564322386153376</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="J17">
-        <v>0.6564322386153377</v>
+        <v>0.6086944787916135</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.399313</v>
+        <v>16.31603133333333</v>
       </c>
       <c r="N17">
-        <v>43.19793900000001</v>
+        <v>48.948094</v>
       </c>
       <c r="O17">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="P17">
-        <v>0.5591182000556946</v>
+        <v>0.5486531738238374</v>
       </c>
       <c r="Q17">
-        <v>49.060254505354</v>
+        <v>44.89586621276177</v>
       </c>
       <c r="R17">
-        <v>441.5422905481861</v>
+        <v>404.062795914856</v>
       </c>
       <c r="S17">
-        <v>0.3670232117131378</v>
+        <v>0.3339621576780653</v>
       </c>
       <c r="T17">
-        <v>0.3670232117131378</v>
+        <v>0.3339621576780653</v>
       </c>
     </row>
   </sheetData>
